--- a/Classes/FinPlanScripts/XLSX/fin_plan_2024_2.xlsx
+++ b/Classes/FinPlanScripts/XLSX/fin_plan_2024_2.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2024_Norma_profit_280000" sheetId="1" r:id="rId1"/>
+    <sheet name="2024_Norma_profit_150000" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Показатель</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Расход на арт-директора</t>
+  </si>
+  <si>
+    <t>УСН</t>
+  </si>
+  <si>
+    <t>Чистая прибыль</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,40 +570,40 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>149846.4</v>
+        <v>169235.275</v>
       </c>
       <c r="D2">
-        <v>365228.8199999999</v>
+        <v>671960.72</v>
       </c>
       <c r="E2">
-        <v>389102.645</v>
+        <v>593663.05</v>
       </c>
       <c r="F2">
-        <v>726033.1050000001</v>
+        <v>738895.0549999999</v>
       </c>
       <c r="G2">
-        <v>915703.9199999999</v>
+        <v>515648.615</v>
       </c>
       <c r="H2">
-        <v>1436283.98</v>
+        <v>257556.195</v>
       </c>
       <c r="I2">
-        <v>2803969.41</v>
+        <v>1001335.245</v>
       </c>
       <c r="J2">
-        <v>1982231.52</v>
+        <v>1284920.335</v>
       </c>
       <c r="K2">
-        <v>2671492.915</v>
+        <v>1211611.345</v>
       </c>
       <c r="L2">
-        <v>2358494.359999999</v>
+        <v>976241.8999999999</v>
       </c>
       <c r="M2">
-        <v>2362191.24</v>
+        <v>1470352.34</v>
       </c>
       <c r="N2">
-        <v>2621690.325</v>
+        <v>968426.845</v>
       </c>
       <c r="O2">
         <f>СУММ(C2:N2)
@@ -858,40 +864,40 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>-247500</v>
+        <v>-338000</v>
       </c>
       <c r="D8">
-        <v>-514600</v>
+        <v>-578000</v>
       </c>
       <c r="E8">
-        <v>-128500</v>
+        <v>-412000</v>
       </c>
       <c r="F8">
-        <v>-277650</v>
+        <v>-496000</v>
       </c>
       <c r="G8">
-        <v>-920250</v>
+        <v>-214000</v>
       </c>
       <c r="H8">
-        <v>-880200</v>
+        <v>-406000</v>
       </c>
       <c r="I8">
-        <v>-754200</v>
+        <v>-766000</v>
       </c>
       <c r="J8">
-        <v>-1060500</v>
+        <v>-382000</v>
       </c>
       <c r="K8">
-        <v>-555200</v>
+        <v>-788000</v>
       </c>
       <c r="L8">
-        <v>-1284650</v>
+        <v>-286000</v>
       </c>
       <c r="M8">
-        <v>-668250</v>
+        <v>-518000</v>
       </c>
       <c r="N8">
-        <v>-563000</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f>СУММ(C8:N8)
@@ -907,40 +913,40 @@
         <v>22</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>-25000</v>
       </c>
-      <c r="D9">
-        <v>-50000</v>
-      </c>
       <c r="E9">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-75000</v>
+        <v>-25000</v>
       </c>
       <c r="G9">
-        <v>-75000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-75000</v>
+        <v>-25000</v>
       </c>
       <c r="I9">
-        <v>-75000</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-75000</v>
+        <v>-25000</v>
       </c>
       <c r="K9">
-        <v>-75000</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-75000</v>
+        <v>-25000</v>
       </c>
       <c r="M9">
-        <v>-75000</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-75000</v>
+        <v>-25000</v>
       </c>
       <c r="O9">
         <f>СУММ(C9:N9)
@@ -956,40 +962,40 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>-246023.6</v>
+        <v>-292134.725</v>
       </c>
       <c r="D10">
-        <v>-322741.1800000001</v>
+        <v>-54409.28000000003</v>
       </c>
       <c r="E10">
-        <v>87232.64500000002</v>
+        <v>58293.05000000005</v>
       </c>
       <c r="F10">
-        <v>250013.1050000001</v>
+        <v>94525.05499999993</v>
       </c>
       <c r="G10">
-        <v>-202916.0800000001</v>
+        <v>178278.615</v>
       </c>
       <c r="H10">
-        <v>357713.9800000002</v>
+        <v>-296813.805</v>
       </c>
       <c r="I10">
-        <v>1851399.41</v>
+        <v>111965.245</v>
       </c>
       <c r="J10">
-        <v>723361.5199999998</v>
+        <v>754550.3350000002</v>
       </c>
       <c r="K10">
-        <v>1917922.915</v>
+        <v>300241.345</v>
       </c>
       <c r="L10">
-        <v>875474.3599999994</v>
+        <v>541871.8999999999</v>
       </c>
       <c r="M10">
-        <v>1495571.24</v>
+        <v>828982.3400000001</v>
       </c>
       <c r="N10">
-        <v>1860320.325</v>
+        <v>820056.845</v>
       </c>
       <c r="O10">
         <f>СУММ(C10:N10)
@@ -1005,40 +1011,40 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>44953.8</v>
+        <v>50770.5</v>
       </c>
       <c r="D11">
-        <v>109568.4</v>
+        <v>201588</v>
       </c>
       <c r="E11">
-        <v>116730.6</v>
+        <v>178098.9</v>
       </c>
       <c r="F11">
-        <v>217809.9</v>
+        <v>221668.5</v>
       </c>
       <c r="G11">
-        <v>274710.9</v>
+        <v>154694.4</v>
       </c>
       <c r="H11">
-        <v>430884.9</v>
+        <v>77266.8</v>
       </c>
       <c r="I11">
-        <v>841190.7</v>
+        <v>300400.5</v>
       </c>
       <c r="J11">
-        <v>594669.2999999999</v>
+        <v>385476</v>
       </c>
       <c r="K11">
-        <v>801447.6</v>
+        <v>363483.3</v>
       </c>
       <c r="L11">
-        <v>707548.2</v>
+        <v>292872.3</v>
       </c>
       <c r="M11">
-        <v>708657.2999999999</v>
+        <v>441105.6</v>
       </c>
       <c r="N11">
-        <v>786507</v>
+        <v>290527.8</v>
       </c>
       <c r="O11">
         <f>СУММ(C11:N11)
@@ -1054,40 +1060,40 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="D12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="E12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="F12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="G12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="H12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="I12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="J12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="K12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="L12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="M12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
       <c r="N12">
-        <v>3630</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1098,40 +1104,40 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
       <c r="L13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <f>СУММ(C13:N13)</f>
@@ -1146,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="O14">
-        <v>1621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1157,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="O15">
-        <v>1669</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,7 +1174,7 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>2082</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1179,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="O17">
-        <v>2459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1190,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="O18">
-        <v>1207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1201,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="O19">
-        <v>12420000</v>
+        <v>5996000</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1267,7 +1273,7 @@
         <v>38</v>
       </c>
       <c r="P25">
-        <v>280000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1278,7 +1284,7 @@
         <v>39</v>
       </c>
       <c r="O26">
-        <v>2800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1300,40 +1306,40 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>8.559999999999999</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="E28">
-        <v>3.88</v>
+        <v>4.12</v>
       </c>
       <c r="F28">
-        <v>9.82</v>
+        <v>4.96</v>
       </c>
       <c r="G28">
-        <v>14.16</v>
+        <v>2.14</v>
       </c>
       <c r="H28">
-        <v>12.88</v>
+        <v>4.06</v>
       </c>
       <c r="I28">
-        <v>11.72</v>
+        <v>9.44</v>
       </c>
       <c r="J28">
-        <v>14.14</v>
+        <v>3.82</v>
       </c>
       <c r="K28">
-        <v>9.5</v>
+        <v>7.88</v>
       </c>
       <c r="L28">
-        <v>23.68</v>
+        <v>2.86</v>
       </c>
       <c r="M28">
-        <v>20.02</v>
+        <v>5.18</v>
       </c>
       <c r="N28">
-        <v>10.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1344,40 +1350,40 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4.279999999999999</v>
+        <v>2.89</v>
       </c>
       <c r="E29">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="F29">
-        <v>4.91</v>
+        <v>2.48</v>
       </c>
       <c r="G29">
-        <v>7.08</v>
+        <v>1.07</v>
       </c>
       <c r="H29">
-        <v>6.44</v>
+        <v>2.03</v>
       </c>
       <c r="I29">
-        <v>5.859999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="J29">
-        <v>7.069999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>3.94</v>
       </c>
       <c r="L29">
-        <v>11.84</v>
+        <v>1.43</v>
       </c>
       <c r="M29">
-        <v>10.01</v>
+        <v>2.59</v>
       </c>
       <c r="N29">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1400,28 +1406,55 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-120000</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-120000</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-200000</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-160000</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-120000</v>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31">
+        <v>-913621.7999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32">
+        <f>СУММ(C10:N10)+O31+O30
+</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
